--- a/db.xlsx
+++ b/db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moy\Desktop\AI\modelo_entrenado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moy\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD00A2-9C22-42DC-BD4F-BF97AE596473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1596438-B749-4BA2-9C77-1EBB78061BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>etiqueta</t>
   </si>
@@ -87,6 +87,42 @@
   </si>
   <si>
     <t>¿Cuánto tiempo toma ahorrar? Depende de que propósito le des a tus ahorros, ¿Son para unas vacaciones o un imprevisto? Y también dependerá cuanta cantidad de dinero ahorres.</t>
+  </si>
+  <si>
+    <t>Ahorro /Explicacion completa del tema</t>
+  </si>
+  <si>
+    <t>¿Qué es ahorrar?</t>
+  </si>
+  <si>
+    <t>¿Para qué ahorrar?</t>
+  </si>
+  <si>
+    <t>¿Cómo empezar a ahorrar?</t>
+  </si>
+  <si>
+    <t>Mejor forma para ahorrar</t>
+  </si>
+  <si>
+    <t>Forma mas fácil de ahorrar</t>
+  </si>
+  <si>
+    <t>Mejorar los ahorros</t>
+  </si>
+  <si>
+    <t>¿Cuanto tiempo toma ahorrar?</t>
+  </si>
+  <si>
+    <t>Importancia de ahorrar</t>
+  </si>
+  <si>
+    <t>¿Cómo superar estos problemas?</t>
+  </si>
+  <si>
+    <t>tema</t>
+  </si>
+  <si>
+    <t>Riesgos de no ahorrar</t>
   </si>
 </sst>
 </file>
@@ -122,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,112 +445,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
